--- a/my_weight.xlsx
+++ b/my_weight.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,230 +403,230 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>44410.29791666667</v>
+        <v>43622.86527777778</v>
       </c>
       <c r="B2">
-        <v>98.15000000000001</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C2">
-        <v>27.2</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>44403.31944444445</v>
+        <v>43622.875</v>
       </c>
       <c r="B3">
-        <v>97.5</v>
+        <v>94.45</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>44386.4125</v>
+        <v>43622.97152777778</v>
       </c>
       <c r="B4">
-        <v>95.05</v>
+        <v>93.8</v>
       </c>
       <c r="C4">
-        <v>26.3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>44381.39375</v>
+        <v>43623.29097222222</v>
       </c>
       <c r="B5">
-        <v>92.45</v>
+        <v>92.2</v>
       </c>
       <c r="C5">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>44319.49236111111</v>
+        <v>43624.31875</v>
       </c>
       <c r="B6">
-        <v>91.15000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="C6">
-        <v>25.2</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>44301.36041666667</v>
+        <v>43625.33402777778</v>
       </c>
       <c r="B7">
-        <v>91.75</v>
+        <v>93.45</v>
       </c>
       <c r="C7">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>44301.36041666667</v>
+        <v>43627.29583333333</v>
       </c>
       <c r="B8">
-        <v>90.34999999999999</v>
+        <v>92.45</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>44300.36875</v>
+        <v>43630.76041666666</v>
       </c>
       <c r="B9">
-        <v>89.8</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="C9">
-        <v>24.9</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>44288.3625</v>
+        <v>43631.37222222222</v>
       </c>
       <c r="B10">
-        <v>90</v>
+        <v>92.05</v>
       </c>
       <c r="C10">
-        <v>24.9</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>44285.36388888889</v>
+        <v>43632.7</v>
       </c>
       <c r="B11">
-        <v>89.05</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C11">
-        <v>24.7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>44279.37777777778</v>
+        <v>43634.30347222222</v>
       </c>
       <c r="B12">
-        <v>89.59999999999999</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C12">
-        <v>24.8</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>44277.38472222222</v>
+        <v>43634.30416666667</v>
       </c>
       <c r="B13">
-        <v>89.34999999999999</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C13">
-        <v>24.8</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>44271.375</v>
+        <v>43638.35347222222</v>
       </c>
       <c r="B14">
-        <v>89.05</v>
+        <v>92.25</v>
       </c>
       <c r="C14">
-        <v>24.7</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>44264.38125</v>
+        <v>43638.35416666666</v>
       </c>
       <c r="B15">
-        <v>89.75</v>
+        <v>92.25</v>
       </c>
       <c r="C15">
-        <v>24.9</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>44261.37986111111</v>
+        <v>43641.30138888889</v>
       </c>
       <c r="B16">
-        <v>90.05</v>
+        <v>91.8</v>
       </c>
       <c r="C16">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>44261.35902777778</v>
+        <v>43641.30208333334</v>
       </c>
       <c r="B17">
-        <v>90.05</v>
+        <v>91.8</v>
       </c>
       <c r="C17">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>44258.35833333333</v>
+        <v>43643.29791666667</v>
       </c>
       <c r="B18">
-        <v>90.55</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="C18">
-        <v>25.1</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>44251.36597222222</v>
+        <v>43645.35486111111</v>
       </c>
       <c r="B19">
-        <v>90.90000000000001</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C19">
-        <v>25.2</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>44250.76458333333</v>
+        <v>43650.87986111111</v>
       </c>
       <c r="B20">
-        <v>92.25</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C20">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>44244.35</v>
+        <v>43650.91458333333</v>
       </c>
       <c r="B21">
-        <v>90.90000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C21">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>44242.35069444445</v>
+        <v>43652.34791666667</v>
       </c>
       <c r="B22">
-        <v>91.75</v>
+        <v>91.8</v>
       </c>
       <c r="C22">
         <v>25.4</v>
@@ -634,84 +634,84 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>44238.36666666667</v>
+        <v>43655.41180555556</v>
       </c>
       <c r="B23">
-        <v>92.2</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="C23">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>44233.40555555555</v>
+        <v>43655.4125</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="C24">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>44230.36597222222</v>
+        <v>43656.34375</v>
       </c>
       <c r="B25">
-        <v>91.95</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="C25">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>44230.33680555555</v>
+        <v>43664.83125</v>
       </c>
       <c r="B26">
-        <v>91.95</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="C26">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>44226.38194444445</v>
+        <v>43664.83194444444</v>
       </c>
       <c r="B27">
-        <v>91.8</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="C27">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>44224.38194444445</v>
+        <v>43667.57291666666</v>
       </c>
       <c r="B28">
-        <v>92.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C28">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>44224.36736111111</v>
+        <v>43671.28958333333</v>
       </c>
       <c r="B29">
-        <v>92.2</v>
+        <v>93</v>
       </c>
       <c r="C29">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>44219.42361111111</v>
+        <v>43675.77361111111</v>
       </c>
       <c r="B30">
         <v>92.59999999999999</v>
@@ -722,21 +722,21 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>44217.64166666667</v>
+        <v>43675.77430555555</v>
       </c>
       <c r="B31">
-        <v>93.95</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>44217.61111111111</v>
+        <v>43678.76041666666</v>
       </c>
       <c r="B32">
-        <v>94.3</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="C32">
         <v>26.1</v>
@@ -744,32 +744,32 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>44216.82916666667</v>
+        <v>43683.80486111111</v>
       </c>
       <c r="B33">
-        <v>94.55</v>
+        <v>94</v>
       </c>
       <c r="C33">
-        <v>26.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>44175.38194444445</v>
+        <v>43690.975</v>
       </c>
       <c r="B34">
-        <v>91.84999999999999</v>
+        <v>93</v>
       </c>
       <c r="C34">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>44168.37013888889</v>
+        <v>43692.30486111111</v>
       </c>
       <c r="B35">
-        <v>93.15000000000001</v>
+        <v>93</v>
       </c>
       <c r="C35">
         <v>25.8</v>
@@ -777,21 +777,21 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>44167.35486111111</v>
+        <v>43692.30625</v>
       </c>
       <c r="B36">
-        <v>93.8</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>44160.36319444444</v>
+        <v>43701.44027777778</v>
       </c>
       <c r="B37">
-        <v>92.7</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="C37">
         <v>25.7</v>
@@ -799,98 +799,98 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>44153.34722222222</v>
+        <v>43701.44097222222</v>
       </c>
       <c r="B38">
-        <v>93.95</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>44147.35486111111</v>
+        <v>43704.34722222222</v>
       </c>
       <c r="B39">
-        <v>94.65000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C39">
-        <v>26.2</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>44145.33888888889</v>
+        <v>43713.29861111111</v>
       </c>
       <c r="B40">
-        <v>93.45</v>
+        <v>92.7</v>
       </c>
       <c r="C40">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>44144.33680555555</v>
+        <v>43718.29166666666</v>
       </c>
       <c r="B41">
-        <v>93.40000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C41">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>44126.70486111111</v>
+        <v>43728.30694444444</v>
       </c>
       <c r="B42">
-        <v>96.55</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C42">
-        <v>26.7</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>44126.7</v>
+        <v>43743.41944444444</v>
       </c>
       <c r="B43">
-        <v>96.65000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C43">
-        <v>26.8</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>44122.66388888889</v>
+        <v>43761.72638888889</v>
       </c>
       <c r="B44">
-        <v>96.7</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C44">
-        <v>26.8</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>44119.34097222222</v>
+        <v>43761.72638888889</v>
       </c>
       <c r="B45">
-        <v>94.09999999999999</v>
+        <v>93.95</v>
       </c>
       <c r="C45">
-        <v>26.1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>44106.43819444445</v>
+        <v>43761.72638888889</v>
       </c>
       <c r="B46">
-        <v>94.34999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="C46">
         <v>26.1</v>
@@ -898,494 +898,494 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>44102.92152777778</v>
+        <v>43761.73333333333</v>
       </c>
       <c r="B47">
-        <v>96.7</v>
+        <v>94.2</v>
       </c>
       <c r="C47">
-        <v>26.8</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>44102.91875</v>
+        <v>43761.73333333333</v>
       </c>
       <c r="B48">
-        <v>96.7</v>
+        <v>93.95</v>
       </c>
       <c r="C48">
-        <v>26.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>44102.91666666666</v>
+        <v>43773.30694444444</v>
       </c>
       <c r="B49">
-        <v>96.8</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C49">
-        <v>26.8</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>44095.40347222222</v>
+        <v>43783.31666666667</v>
       </c>
       <c r="B50">
-        <v>95.45</v>
+        <v>91</v>
       </c>
       <c r="C50">
-        <v>26.4</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>44074.73333333333</v>
+        <v>43785.43055555555</v>
       </c>
       <c r="B51">
-        <v>96.8</v>
+        <v>89.95</v>
       </c>
       <c r="C51">
-        <v>26.8</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>44074.73263888889</v>
+        <v>43819.85694444444</v>
       </c>
       <c r="B52">
-        <v>95</v>
+        <v>92.75</v>
       </c>
       <c r="C52">
-        <v>26.3</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>44074.31805555556</v>
+        <v>43839.31111111111</v>
       </c>
       <c r="B53">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>44057.27916666667</v>
+        <v>43850.30833333333</v>
       </c>
       <c r="B54">
-        <v>91.90000000000001</v>
+        <v>94.55</v>
       </c>
       <c r="C54">
-        <v>25.5</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>44057.27847222222</v>
+        <v>43858.30486111111</v>
       </c>
       <c r="B55">
-        <v>91.90000000000001</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="C55">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>44052.40763888889</v>
+        <v>43869.40833333333</v>
       </c>
       <c r="B56">
-        <v>91.3</v>
+        <v>94.5</v>
       </c>
       <c r="C56">
-        <v>25.3</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>44046.31944444445</v>
+        <v>43874.30902777778</v>
       </c>
       <c r="B57">
-        <v>92</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="C57">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>44043.31527777778</v>
+        <v>43877.36458333334</v>
       </c>
       <c r="B58">
-        <v>91.45</v>
+        <v>93.45</v>
       </c>
       <c r="C58">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>44042.30694444444</v>
+        <v>43890.34513888889</v>
       </c>
       <c r="B59">
-        <v>90.95</v>
+        <v>92.75</v>
       </c>
       <c r="C59">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>44028.30972222222</v>
+        <v>43906.3125</v>
       </c>
       <c r="B60">
-        <v>90.8</v>
+        <v>93.65000000000001</v>
       </c>
       <c r="C60">
-        <v>25.2</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>44028.24236111111</v>
+        <v>43909.31805555556</v>
       </c>
       <c r="B61">
-        <v>90.8</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="C61">
-        <v>25.2</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>44018.30555555555</v>
+        <v>43955.89236111111</v>
       </c>
       <c r="B62">
-        <v>91.05</v>
+        <v>92</v>
       </c>
       <c r="C62">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>44016.37083333333</v>
+        <v>43964.32083333333</v>
       </c>
       <c r="B63">
-        <v>91.15000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="C63">
-        <v>25.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>44009.31875</v>
+        <v>43971.55625</v>
       </c>
       <c r="B64">
-        <v>89.59999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C64">
-        <v>24.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>44007.30763888889</v>
+        <v>43972.35277777778</v>
       </c>
       <c r="B65">
-        <v>89.75</v>
+        <v>88.55</v>
       </c>
       <c r="C65">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>44001.30069444444</v>
+        <v>43973.36527777778</v>
       </c>
       <c r="B66">
-        <v>89.59999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="C66">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>44001.30069444444</v>
+        <v>43986.37361111111</v>
       </c>
       <c r="B67">
-        <v>89.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="C67">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>43998.6</v>
+        <v>43986.37430555555</v>
       </c>
       <c r="B68">
-        <v>91.7</v>
+        <v>89</v>
       </c>
       <c r="C68">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>43986.37430555555</v>
+        <v>43998.6</v>
       </c>
       <c r="B69">
-        <v>89</v>
+        <v>91.7</v>
       </c>
       <c r="C69">
-        <v>24.7</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>43986.37361111111</v>
+        <v>44001.30069444444</v>
       </c>
       <c r="B70">
-        <v>89</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C70">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>43973.36527777778</v>
+        <v>44007.30763888889</v>
       </c>
       <c r="B71">
-        <v>88.8</v>
+        <v>89.75</v>
       </c>
       <c r="C71">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>43972.35277777778</v>
+        <v>44009.31875</v>
       </c>
       <c r="B72">
-        <v>88.55</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C72">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>43971.55625</v>
+        <v>44016.37083333333</v>
       </c>
       <c r="B73">
-        <v>90.40000000000001</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="C73">
-        <v>25</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>43964.32083333333</v>
+        <v>44018.30555555555</v>
       </c>
       <c r="B74">
-        <v>90.3</v>
+        <v>91.05</v>
       </c>
       <c r="C74">
-        <v>25</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>43955.89236111111</v>
+        <v>44028.24236111111</v>
       </c>
       <c r="B75">
-        <v>92</v>
+        <v>90.8</v>
       </c>
       <c r="C75">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>43909.31805555556</v>
+        <v>44028.30972222222</v>
       </c>
       <c r="B76">
-        <v>92.84999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C76">
-        <v>25.7</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>43906.3125</v>
+        <v>44042.30694444444</v>
       </c>
       <c r="B77">
-        <v>93.65000000000001</v>
+        <v>90.95</v>
       </c>
       <c r="C77">
-        <v>25.9</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>43890.34513888889</v>
+        <v>44043.31527777778</v>
       </c>
       <c r="B78">
-        <v>92.75</v>
+        <v>91.45</v>
       </c>
       <c r="C78">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>43877.36458333334</v>
+        <v>44046.31944444445</v>
       </c>
       <c r="B79">
-        <v>93.45</v>
+        <v>92</v>
       </c>
       <c r="C79">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>43874.30902777778</v>
+        <v>44052.40763888889</v>
       </c>
       <c r="B80">
-        <v>92.84999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="C80">
-        <v>25.7</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>43869.40833333333</v>
+        <v>44057.27847222222</v>
       </c>
       <c r="B81">
-        <v>94.5</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C81">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>43858.30486111111</v>
+        <v>44057.27916666667</v>
       </c>
       <c r="B82">
-        <v>94.34999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C82">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>43850.30833333333</v>
+        <v>44074.31805555556</v>
       </c>
       <c r="B83">
-        <v>94.55</v>
+        <v>94</v>
       </c>
       <c r="C83">
-        <v>26.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>43839.31111111111</v>
+        <v>44074.73263888889</v>
       </c>
       <c r="B84">
-        <v>94.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="C84">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>43819.85694444444</v>
+        <v>44074.73333333333</v>
       </c>
       <c r="B85">
-        <v>92.75</v>
+        <v>96.8</v>
       </c>
       <c r="C85">
-        <v>25.7</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>43819.85694444444</v>
+        <v>44095.40347222222</v>
       </c>
       <c r="B86">
-        <v>92.75</v>
+        <v>95.45</v>
       </c>
       <c r="C86">
-        <v>25.7</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>43785.43055555555</v>
+        <v>44102.91666666666</v>
       </c>
       <c r="B87">
-        <v>89.95</v>
+        <v>96.8</v>
       </c>
       <c r="C87">
-        <v>24.9</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>43783.31666666667</v>
+        <v>44102.91875</v>
       </c>
       <c r="B88">
-        <v>91</v>
+        <v>96.7</v>
       </c>
       <c r="C88">
-        <v>25.2</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>43773.30694444444</v>
+        <v>44102.92152777778</v>
       </c>
       <c r="B89">
-        <v>91.84999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="C89">
-        <v>25.4</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>43761.73333333333</v>
+        <v>44106.43819444445</v>
       </c>
       <c r="B90">
-        <v>93.95</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="C90">
-        <v>26</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>43761.73333333333</v>
+        <v>44119.34097222222</v>
       </c>
       <c r="B91">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C91">
         <v>26.1</v>
@@ -1393,574 +1393,519 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>43761.72638888889</v>
+        <v>44122.66388888889</v>
       </c>
       <c r="B92">
-        <v>94.2</v>
+        <v>96.7</v>
       </c>
       <c r="C92">
-        <v>26.1</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>43761.72638888889</v>
+        <v>44126.7</v>
       </c>
       <c r="B93">
-        <v>93.95</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="C93">
-        <v>26</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>43761.72638888889</v>
+        <v>44126.70486111111</v>
       </c>
       <c r="B94">
-        <v>91.90000000000001</v>
+        <v>96.55</v>
       </c>
       <c r="C94">
-        <v>25.5</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>43743.41944444444</v>
+        <v>44144.33680555555</v>
       </c>
       <c r="B95">
-        <v>91.90000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C95">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>43728.30694444444</v>
+        <v>44145.33888888889</v>
       </c>
       <c r="B96">
-        <v>92.59999999999999</v>
+        <v>93.45</v>
       </c>
       <c r="C96">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>43718.29166666666</v>
+        <v>44147.35486111111</v>
       </c>
       <c r="B97">
-        <v>92.8</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="C97">
-        <v>25.7</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>43713.29861111111</v>
+        <v>44153.34722222222</v>
       </c>
       <c r="B98">
-        <v>92.7</v>
+        <v>93.95</v>
       </c>
       <c r="C98">
-        <v>25.7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>43704.34722222222</v>
+        <v>44160.36319444444</v>
       </c>
       <c r="B99">
-        <v>92.40000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="C99">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>43704.34722222222</v>
+        <v>44167.35486111111</v>
       </c>
       <c r="B100">
-        <v>92.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="C100">
-        <v>25.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>43701.44097222222</v>
+        <v>44168.37013888889</v>
       </c>
       <c r="B101">
-        <v>92.65000000000001</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="C101">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>43701.44027777778</v>
+        <v>44175.38194444445</v>
       </c>
       <c r="B102">
-        <v>92.65000000000001</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="C102">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>43692.30625</v>
+        <v>44216.82916666667</v>
       </c>
       <c r="B103">
-        <v>92.65000000000001</v>
+        <v>94.55</v>
       </c>
       <c r="C103">
-        <v>25.7</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>43692.30486111111</v>
+        <v>44217.61111111111</v>
       </c>
       <c r="B104">
-        <v>93</v>
+        <v>94.3</v>
       </c>
       <c r="C104">
-        <v>25.8</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>43690.975</v>
+        <v>44217.64166666667</v>
       </c>
       <c r="B105">
-        <v>93</v>
+        <v>93.95</v>
       </c>
       <c r="C105">
-        <v>25.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>43683.80486111111</v>
+        <v>44219.42361111111</v>
       </c>
       <c r="B106">
-        <v>94</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="C106">
-        <v>26</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>43678.76041666666</v>
+        <v>44224.36736111111</v>
       </c>
       <c r="B107">
-        <v>94.34999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="C107">
-        <v>26.1</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>43675.77430555555</v>
+        <v>44224.38194444445</v>
       </c>
       <c r="B108">
-        <v>92.59999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="C108">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>43675.77361111111</v>
+        <v>44226.38194444445</v>
       </c>
       <c r="B109">
-        <v>92.59999999999999</v>
+        <v>91.8</v>
       </c>
       <c r="C109">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>43671.28958333333</v>
+        <v>44230.33680555555</v>
       </c>
       <c r="B110">
-        <v>93</v>
+        <v>91.95</v>
       </c>
       <c r="C110">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>43667.57291666666</v>
+        <v>44230.36597222222</v>
       </c>
       <c r="B111">
-        <v>92.90000000000001</v>
+        <v>91.95</v>
       </c>
       <c r="C111">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>43664.83194444444</v>
+        <v>44233.40555555555</v>
       </c>
       <c r="B112">
-        <v>92.65000000000001</v>
+        <v>92</v>
       </c>
       <c r="C112">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>43664.83125</v>
+        <v>44238.36666666667</v>
       </c>
       <c r="B113">
-        <v>92.65000000000001</v>
+        <v>92.2</v>
       </c>
       <c r="C113">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>43656.34375</v>
+        <v>44242.35069444445</v>
       </c>
       <c r="B114">
-        <v>90.65000000000001</v>
+        <v>91.75</v>
       </c>
       <c r="C114">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>43655.4125</v>
+        <v>44244.35</v>
       </c>
       <c r="B115">
-        <v>92.84999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C115">
-        <v>25.7</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>43655.41180555556</v>
+        <v>44250.76458333333</v>
       </c>
       <c r="B116">
-        <v>92.84999999999999</v>
+        <v>92.25</v>
       </c>
       <c r="C116">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>43652.34791666667</v>
+        <v>44251.36597222222</v>
       </c>
       <c r="B117">
-        <v>91.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C117">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>43650.91458333333</v>
+        <v>44258.35833333333</v>
       </c>
       <c r="B118">
-        <v>92.09999999999999</v>
+        <v>90.55</v>
       </c>
       <c r="C118">
-        <v>25.5</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>43650.91458333333</v>
+        <v>44261.35902777778</v>
       </c>
       <c r="B119">
-        <v>92.09999999999999</v>
+        <v>90.05</v>
       </c>
       <c r="C119">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>43650.87986111111</v>
+        <v>44261.37986111111</v>
       </c>
       <c r="B120">
-        <v>92.09999999999999</v>
+        <v>90.05</v>
       </c>
       <c r="C120">
-        <v>25.5</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>43645.35486111111</v>
+        <v>44264.38125</v>
       </c>
       <c r="B121">
-        <v>91.84999999999999</v>
+        <v>89.75</v>
       </c>
       <c r="C121">
-        <v>25.4</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>43643.29791666667</v>
+        <v>44271.375</v>
       </c>
       <c r="B122">
-        <v>92.15000000000001</v>
+        <v>89.05</v>
       </c>
       <c r="C122">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>43643.29791666667</v>
+        <v>44277.38472222222</v>
       </c>
       <c r="B123">
-        <v>92.15000000000001</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="C123">
-        <v>25.5</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>43641.30208333334</v>
+        <v>44279.37777777778</v>
       </c>
       <c r="B124">
-        <v>91.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C124">
-        <v>25.4</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>43641.30138888889</v>
+        <v>44285.36388888889</v>
       </c>
       <c r="B125">
-        <v>91.8</v>
+        <v>89.05</v>
       </c>
       <c r="C125">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>43638.35416666666</v>
+        <v>44288.3625</v>
       </c>
       <c r="B126">
-        <v>92.25</v>
+        <v>90</v>
       </c>
       <c r="C126">
-        <v>25.6</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>43638.35347222222</v>
+        <v>44300.36875</v>
       </c>
       <c r="B127">
-        <v>92.25</v>
+        <v>89.8</v>
       </c>
       <c r="C127">
-        <v>25.6</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>43634.30416666667</v>
+        <v>44301.36041666667</v>
       </c>
       <c r="B128">
-        <v>92.34999999999999</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="C128">
-        <v>25.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>43634.30347222222</v>
+        <v>44301.36041666667</v>
       </c>
       <c r="B129">
-        <v>92.34999999999999</v>
+        <v>91.75</v>
       </c>
       <c r="C129">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>43632.7</v>
+        <v>44319.49236111111</v>
       </c>
       <c r="B130">
-        <v>93.90000000000001</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="C130">
-        <v>26</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>43632.7</v>
+        <v>44381.39375</v>
       </c>
       <c r="B131">
-        <v>93.90000000000001</v>
+        <v>92.45</v>
       </c>
       <c r="C131">
-        <v>26</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>43631.37222222222</v>
+        <v>44386.4125</v>
       </c>
       <c r="B132">
-        <v>92.05</v>
+        <v>95.05</v>
       </c>
       <c r="C132">
-        <v>25.5</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>43630.76041666666</v>
+        <v>44403.31944444445</v>
       </c>
       <c r="B133">
-        <v>92.84999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="C133">
-        <v>25.7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>43630.76041666666</v>
+        <v>44410.29791666667</v>
       </c>
       <c r="B134">
-        <v>92.84999999999999</v>
+        <v>98.15000000000001</v>
       </c>
       <c r="C134">
-        <v>25.7</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>43627.29583333333</v>
+        <v>44418.39444444444</v>
       </c>
       <c r="B135">
-        <v>92.45</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C135">
-        <v>25.6</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>43625.33402777778</v>
+        <v>44419.97361111111</v>
       </c>
       <c r="B136">
-        <v>93.45</v>
+        <v>101.5</v>
       </c>
       <c r="C136">
-        <v>25.9</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>43624.31875</v>
+        <v>44421.34375</v>
       </c>
       <c r="B137">
-        <v>93.3</v>
+        <v>99.05</v>
       </c>
       <c r="C137">
-        <v>25.8</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>43624.31875</v>
+        <v>44422.55</v>
       </c>
       <c r="B138">
-        <v>93.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C138">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2">
-        <v>43623.29097222222</v>
-      </c>
-      <c r="B139">
-        <v>92.2</v>
-      </c>
-      <c r="C139">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2">
-        <v>43623.29097222222</v>
-      </c>
-      <c r="B140">
-        <v>92.2</v>
-      </c>
-      <c r="C140">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2">
-        <v>43622.97152777778</v>
-      </c>
-      <c r="B141">
-        <v>93.8</v>
-      </c>
-      <c r="C141">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2">
-        <v>43622.875</v>
-      </c>
-      <c r="B142">
-        <v>94.45</v>
-      </c>
-      <c r="C142">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2">
-        <v>43622.86527777778</v>
-      </c>
-      <c r="B143">
-        <v>94.40000000000001</v>
-      </c>
-      <c r="C143">
-        <v>26.1</v>
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
